--- a/biology/Botanique/Batata_de_Trás-os-Montes/Batata_de_Trás-os-Montes.xlsx
+++ b/biology/Botanique/Batata_de_Trás-os-Montes/Batata_de_Trás-os-Montes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Batata_de_Tr%C3%A1s-os-Montes</t>
+          <t>Batata_de_Trás-os-Montes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Batata de Trás-os-Montes (« pomme de terre du Trás-os-Montes ») est une indication géographique protégée (IGP) qui s'applique à une production de pommes de terre de la région du Haut Trás-os-Montes, au Portugal. Cette production a été enregistrée comme indication géographique protégée (IGP) au niveau européen en 2007[1].
+Batata de Trás-os-Montes (« pomme de terre du Trás-os-Montes ») est une indication géographique protégée (IGP) qui s'applique à une production de pommes de terre de la région du Haut Trás-os-Montes, au Portugal. Cette production a été enregistrée comme indication géographique protégée (IGP) au niveau européen en 2007.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Batata_de_Tr%C3%A1s-os-Montes</t>
+          <t>Batata_de_Trás-os-Montes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,18 +524,20 @@
           <t>Conditions à respecter</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les variétés autorisées sont au nombre de quatre :  'Désirée', 'Kennebec', 'Jaerla', 'Atlantic'.
 La zone de production, située dans les montagnes et vallées du Trás-os-Montes, couvre les territoires suivants dans les districts de Bragance et Vila Real: 
 en totalité
-concelhos[2] de Boticas, Bragança, Chaves, Macedo de Cavaleiros, Montalegre, Valpaços, Vila Pouca de Aguiar, Vinhais,
+concelhos de Boticas, Bragança, Chaves, Macedo de Cavaleiros, Montalegre, Valpaços, Vila Pouca de Aguiar, Vinhais,
 en partie :
-concelho de Murça : freguesias[2] de Carvas, Fiolhoso, Jou, Palheiros, Valongo de Milhais, Vilares,
+concelho de Murça : freguesias de Carvas, Fiolhoso, Jou, Palheiros, Valongo de Milhais, Vilares,
 concelho d'Alijó, : freguesias de Pópulo, Ribalonga, et Vila Verde,
 concelho  de Mirandela : freguesias d'Aguieiras, Bouça, Fradizela, Sao Pedro Vehlo, Torre de Dona Chama, Vale de Gouvinhas  et Vale de Telhas,
 concelho d'Alfândega da Fé : freguesias d'Agrobom, Gebelim, Pombal, Saldonha, Sambade, Soeima et Vales,
-concelho de Vimioso : freguesias d'Argozelo, Carção, Matela, Pinelo et Santulhão[3].</t>
+concelho de Vimioso : freguesias d'Argozelo, Carção, Matela, Pinelo et Santulhão.</t>
         </is>
       </c>
     </row>
